--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_66.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02), (81.1, 87.58)]</t>
+          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:18.660000', '0:00:21.840000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:26.280000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(18.32, 21.08)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.78, 16.74)]</t>
+          <t>[('0:01:03.380000', '0:01:05.720000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:11.560000', '0:01:20')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1160714285714286</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.014823, 6.126439)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[('0:00:09.780000', '0:00:14.360000'), ('0:00:01.540000', '0:00:06.680000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:12.140000', '0:00:20.020000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_139</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1325187969924812</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(51.85331, 57.05458)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.126439, 9.980952)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(88.86, 97.74)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.44, 6.66)]</t>
+          <t>[('0:01:23.100000', '0:01:30.020000'), ('0:00:28.140000', '0:00:36.100000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:03', '0:00:05.280000'), ('0:00:00.700000', '0:00:03.780000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1087570621468927</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.014988, 20.892721)]</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:00:03', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>schubert-winterreise_132</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(72.5, 93.84)]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.19375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(60.854263, 66.566371)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(46.06, 53.66)]</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.38, 6.26)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(7.02, 24.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.78, 21.0)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:13.820000', '0:00:17.980000'), ('0:00:23.160000', '0:00:26.040000'), ('0:00:18.660000', '0:00:20.140000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
